--- a/Design_db_sys.xlsx
+++ b/Design_db_sys.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="DB_Design" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>Sejal Vaidya</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,11 +76,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-FK: Home.IK</t>
+FK: IK.IK</t>
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,31 +100,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Simulated, hourly. 24 hr x current DoY x installation_key fields.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sejal Vaidya:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Default PK. Not needed if Installation Key to be made PK</t>
+Simulated, hourly. DC Power for 24 hrs  x Unique_together fields (timestamp x installation_key).</t>
         </r>
       </text>
     </comment>
@@ -148,11 +124,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-UNIQUE/UUID</t>
+PK/UUID</t>
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,11 +148,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Field may not be present if Home needs to pick Installation/power station dynamically by lat/long</t>
+Field may be present in future, if IK needs to be mapped to Installation at the time of new entry</t>
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="I10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="0" shapeId="0">
+    <comment ref="M10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +200,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="C15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sejal Vaidya:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Batch, Dummy values.
+Installation Key metadata, used in Live DC</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -244,31 +245,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Batch (Demo: dummy, PROD: provided). A group of installation_keys/homes get power from a single installation.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sejal Vaidya:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Stores installation metadata and corresponding DC values (365 keys x 24 values, for each installation) num_rows=1 per installation. Each row of DC column (1 DoY) stores DC Power of 24 hours</t>
+Stores installation metadata (lat/long/sc) and corresponding DC values (365 keys x 24 values, for each installation, num_rows=1 per installation. Each row of DC column (1 DoY) stores DC Power of 24 hours</t>
         </r>
       </text>
     </comment>
@@ -302,11 +279,36 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Simulated, hourly. 24 hr x current DoY x installation_key fields.</t>
+Batch, Dummy values.
+Installation Key metadata, used in Live DC</t>
         </r>
       </text>
     </comment>
-    <comment ref="K8" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sejal Vaidya:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Simulated, hourly. DC Power for 24 hrs  x Unique_together fields (timestamp x installation_key).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -330,30 +332,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sejal Vaidya:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Batch (Demo: dummy, PROD: provided). A group of installation_keys/homes get power from a single installation.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="L15" authorId="0" shapeId="0">
       <text>
         <r>
@@ -374,7 +352,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Store Ref Data/JSON for each installation</t>
+Fetch and Store Ref Data/JSON for each installation</t>
         </r>
       </text>
     </comment>
@@ -383,7 +361,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>XYZ789</t>
   </si>
@@ -430,21 +408,12 @@
     <t>Simulation</t>
   </si>
   <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
     <t>Installation Key 1</t>
   </si>
   <si>
     <t>Installation Key 2</t>
   </si>
   <si>
-    <t>Home 3</t>
-  </si>
-  <si>
     <t>Installation Key 3</t>
   </si>
   <si>
@@ -457,162 +426,27 @@
     <t>Installation Key 4</t>
   </si>
   <si>
-    <t>Home 4</t>
-  </si>
-  <si>
     <t>Installation 1</t>
   </si>
   <si>
     <t>Web Service</t>
   </si>
   <si>
-    <t>`--&gt; store in Live DB</t>
-  </si>
-  <si>
-    <t>herokuapp.com/?installation_key=123234&amp;TS=1314231&amp;DC=123</t>
-  </si>
-  <si>
-    <t>API Called 24 times a day</t>
-  </si>
-  <si>
-    <t>Simulation will give me one value of DC Power for that hour of the day and that installation key</t>
-  </si>
-  <si>
-    <t>`--&gt; store in reference data DB</t>
-  </si>
-  <si>
-    <t>output--&gt; reference data in JSON</t>
-  </si>
-  <si>
-    <t>Get lat long and capacity of the corresponding Installation key from home DB</t>
-  </si>
-  <si>
-    <t>server application -- &gt;  api logic</t>
-  </si>
-  <si>
-    <t>herokuapp.com/?installation_key=123234&amp;TS=1314231</t>
-  </si>
-  <si>
-    <t>API Endpoint called with params</t>
-  </si>
-  <si>
-    <t>Cluster 1</t>
-  </si>
-  <si>
-    <t>Cluster 2</t>
-  </si>
-  <si>
     <t>Installation 2</t>
   </si>
   <si>
-    <t>Home 5</t>
-  </si>
-  <si>
-    <t>Home 6</t>
-  </si>
-  <si>
-    <t>Home 7</t>
-  </si>
-  <si>
-    <t>Home 8</t>
-  </si>
-  <si>
-    <t>3b</t>
-  </si>
-  <si>
-    <t>Use the output from step1 to find Installation object from DB</t>
-  </si>
-  <si>
-    <t>3a</t>
-  </si>
-  <si>
-    <t>If Step 2 is True, skip to Step 4;  else, call the oorjan ref url (NREL) with lat/long/sc parameters</t>
-  </si>
-  <si>
-    <t>Use TS parameter from service, to get corresponding Ref DC data based on installation object</t>
-  </si>
-  <si>
-    <t>Call the web service/app with installation_key and TS</t>
-  </si>
-  <si>
-    <t>Use reference data, TS, and other factors (Random, system capacity multiplier) to generate simulated Live dc power data, on hourly basis</t>
-  </si>
-  <si>
     <t>Steps</t>
   </si>
   <si>
-    <t>For Production</t>
-  </si>
-  <si>
-    <t>Web Service with parameter format</t>
-  </si>
-  <si>
     <t>Request (to Web Service)</t>
   </si>
   <si>
-    <t>Produce report comparing Live DC with Ref DC for each hour, on daily basis or adhoc based on web service request (with timestamp and installation key params)</t>
-  </si>
-  <si>
     <t>{{0:[1,2…24]}...{365:[1,2…24]}}</t>
   </si>
   <si>
     <t>Reference</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Step 2: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Get Lat/Long/ SC, from Installation Key</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Step 3: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Get Reference objects, based on nearest lat/long/sc of Installation Key</t>
-    </r>
-  </si>
-  <si>
-    <t>Web Service: Admin/Installation</t>
-  </si>
-  <si>
-    <t>Web Service: Admin/InstallationKey</t>
-  </si>
-  <si>
     <t>InstallationKey</t>
   </si>
   <si>
@@ -622,79 +456,7 @@
     <t>Preliminary Setup</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Step 4/Scheduled: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Daily Report</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Step 1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">API call parameters - Installation Key (&amp; Timestamp) </t>
-    </r>
-  </si>
-  <si>
     <t>Service</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 0-a1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Add/Edit Installation (Lat/Lon/SC)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -746,6 +508,15 @@
     </r>
   </si>
   <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>Web Service: Admin/API (InstallationKey)</t>
+  </si>
+  <si>
+    <t>System_Capacity</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <i/>
@@ -756,7 +527,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Scheduled: </t>
+      <t>Step 0-a1</t>
     </r>
     <r>
       <rPr>
@@ -766,11 +537,353 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Live Feed DC Power value for current day, at each hour, per installation key</t>
+      <t>: Add/Edit Reference Data (Lat/Lon/SC)</t>
     </r>
   </si>
   <si>
-    <t>DC</t>
+    <t>Web Service: Admin/API (Reference)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">API call </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appname/solarsys/api/performance/ ?installationkey=&amp; timestamp=</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Get Lat/Long/ SC, using </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>installationkey</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Get nearest Reference object, based on lat/long/sc of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>installationkey</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Get Live DC Power, using </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>installation key &amp; timestamp (date)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 5/Scheduled:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hourly comparison  of Live DC value with Ref DC value </t>
+    </r>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>0-a1</t>
+  </si>
+  <si>
+    <t>0-a2</t>
+  </si>
+  <si>
+    <t>Corresponding DC values are auto-fetched &amp; stored from Ref API, on saving Installation Metadata</t>
+  </si>
+  <si>
+    <t>0-b</t>
+  </si>
+  <si>
+    <t>(nearest)</t>
+  </si>
+  <si>
+    <t>Installation Key 5</t>
+  </si>
+  <si>
+    <t>Installation Key 6</t>
+  </si>
+  <si>
+    <t>Installation Key 7</t>
+  </si>
+  <si>
+    <t>Installation Key 8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Get nearest Reference object, based on lat/long/sc of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>installationkey</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Get Live DC Power, using </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>installation key &amp; timestamp (date)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scheduled:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Generate/Feed Live DC Power value for a day, at each hour, per installation key</t>
+    </r>
+  </si>
+  <si>
+    <t>Generate/simulate Live DC Power for a day, at each hour, per installation key</t>
+  </si>
+  <si>
+    <t>Scheduled/API</t>
+  </si>
+  <si>
+    <t>Setup/Admin</t>
+  </si>
+  <si>
+    <t>Setup/Auto</t>
+  </si>
+  <si>
+    <t>Add/Edit InstallationKey data - Lat/Lon/SC, IKey will be auto-generated (UUID)</t>
+  </si>
+  <si>
+    <t>Add/Edit Installation Metadata (Reference) - Lat/Lon/SC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compare Live DC power with Ref DC for each hour, on daily basis or adhoc based on web service request (with </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>timestamp &amp; installation key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> params)</t>
+    </r>
+  </si>
+  <si>
+    <t>Service/API</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">API call: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appname/solarsys/api/performance/?installationkey=&amp;timestamp=</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Get Lat/Long/ SC from InstallationKey table, using </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>installationkey</t>
+    </r>
+  </si>
+  <si>
+    <t>Actions performed by Application</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -779,9 +892,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -894,6 +1007,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -909,7 +1039,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1072,14 +1202,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1088,8 +1231,25 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1101,11 +1261,80 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1115,10 +1344,21 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1127,7 +1367,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1137,8 +1379,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -1150,20 +1394,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1179,17 +1427,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1200,36 +1443,73 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1239,36 +1519,42 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1281,127 +1567,110 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1424,15 +1693,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>723904</xdr:colOff>
+      <xdr:colOff>742950</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>733426</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9528</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>66677</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1440,9 +1709,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="1038226" y="1390653"/>
-          <a:ext cx="1647827" cy="9522"/>
+        <a:xfrm flipV="1">
+          <a:off x="1476375" y="523876"/>
+          <a:ext cx="1743078" cy="1285874"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -1470,13 +1739,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>38103</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>133353</xdr:rowOff>
@@ -1524,15 +1793,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133352</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1540,15 +1809,15 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6829426" y="1771650"/>
-          <a:ext cx="866774" cy="2"/>
+        <a:xfrm>
+          <a:off x="7353300" y="2381250"/>
+          <a:ext cx="1200150" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:prstDash val="solid"/>
+          <a:prstDash val="sysDash"/>
           <a:tailEnd type="none"/>
         </a:ln>
       </xdr:spPr>
@@ -1572,15 +1841,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:colOff>609598</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>609602</xdr:colOff>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>28577</xdr:rowOff>
+      <xdr:rowOff>28579</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1589,8 +1858,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="8362950" y="2705100"/>
-          <a:ext cx="1257301" cy="3"/>
+          <a:off x="8691560" y="2900364"/>
+          <a:ext cx="866778" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -1668,15 +1937,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1684,9 +1953,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4152900" y="1019175"/>
-          <a:ext cx="1200150" cy="9525"/>
+        <a:xfrm>
+          <a:off x="4343400" y="571500"/>
+          <a:ext cx="666750" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -1715,16 +1984,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>438154</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495303</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1732,9 +2001,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="6348415" y="1404939"/>
-          <a:ext cx="1142999" cy="9521"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="7296152" y="1809750"/>
+          <a:ext cx="1123949" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -1763,16 +2032,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>409575</xdr:rowOff>
+      <xdr:rowOff>9527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9527</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1780,9 +2049,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="3986213" y="1795462"/>
-          <a:ext cx="809625" cy="2"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4624389" y="1347788"/>
+          <a:ext cx="1047747" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -1860,63 +2129,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>409575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>609602</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Curved Connector 43"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="8672513" y="1547812"/>
-          <a:ext cx="638175" cy="2"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>390523</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247648</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>200026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
@@ -1927,7 +2147,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="5438774" y="2686050"/>
+          <a:off x="4600574" y="2686050"/>
           <a:ext cx="1257301" cy="3"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
@@ -1987,6 +2207,152 @@
           </a:solidFill>
           <a:prstDash val="sysDot"/>
           <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Curved Connector 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6186489" y="1757363"/>
+          <a:ext cx="1047747" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Curved Connector 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7372350" y="590550"/>
+          <a:ext cx="2028825" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Curved Connector 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9372601" y="1552575"/>
+          <a:ext cx="1438273" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2272,268 +2638,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L18"/>
+  <dimension ref="B1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="9"/>
-    <col min="2" max="2" width="3" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="2.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.625" style="9" customWidth="1"/>
-    <col min="17" max="16384" width="9.75" style="9"/>
+    <col min="1" max="1" width="6.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="3" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="6" customWidth="1"/>
+    <col min="9" max="11" width="8.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.625" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="9.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C1" s="54"/>
-    </row>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C1" s="23"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="F3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="G3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="H3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="21"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E4" s="10"/>
+      <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="22">
+      <c r="G4" s="17">
         <v>42789.25</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14" t="s">
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="22">
+      <c r="G5" s="17">
         <v>42789.291666666664</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="34" t="s">
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="64"/>
+      <c r="C10" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="J10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="K10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="19" t="s">
+      <c r="L10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="65"/>
+      <c r="C11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="11">
+        <f>J$11+0.5</f>
+        <v>19.576000000000001</v>
+      </c>
+      <c r="E11" s="11">
+        <f>K$11+0.5</f>
+        <v>72.587699999999998</v>
+      </c>
+      <c r="F11" s="26">
+        <v>10</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="J11" s="26">
+        <v>19.076000000000001</v>
+      </c>
+      <c r="K11" s="26">
+        <v>72.087699999999998</v>
+      </c>
+      <c r="L11" s="26">
+        <v>10</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="65"/>
+      <c r="C12" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11">
+        <f>J$11-0.5</f>
+        <v>18.576000000000001</v>
+      </c>
+      <c r="E12" s="11">
+        <f>K$11-0.5</f>
+        <v>71.587699999999998</v>
+      </c>
+      <c r="F12" s="26">
+        <v>10</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10">
+        <v>2</v>
+      </c>
+      <c r="J12" s="26">
+        <v>12.9716</v>
+      </c>
+      <c r="K12" s="26">
+        <v>77.5946</v>
+      </c>
+      <c r="L12" s="26">
         <v>5</v>
       </c>
-      <c r="K10" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="95" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
-      <c r="C11" s="14" t="s">
+      <c r="M12" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="65"/>
+      <c r="C13" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <f>J$12+0.5</f>
+        <v>13.4716</v>
+      </c>
+      <c r="E13" s="11">
+        <f>K$12+0.5</f>
+        <v>78.0946</v>
+      </c>
+      <c r="F13" s="26">
+        <v>5</v>
+      </c>
+      <c r="G13" s="21">
+        <v>2</v>
+      </c>
+      <c r="I13" s="10">
         <v>3</v>
       </c>
-      <c r="D11" s="14">
-        <f>I$11+0.5</f>
-        <v>19.576000000000001</v>
-      </c>
-      <c r="E11" s="14">
-        <f>J$11+0.5</f>
-        <v>72.587699999999998</v>
-      </c>
-      <c r="F11" s="33">
-        <v>1</v>
-      </c>
-      <c r="H11" s="13">
-        <v>1</v>
-      </c>
-      <c r="I11" s="65">
-        <v>19.076000000000001</v>
-      </c>
-      <c r="J11" s="65">
-        <v>72.087699999999998</v>
-      </c>
-      <c r="K11" s="65">
-        <v>10</v>
-      </c>
-      <c r="L11" s="53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="35"/>
-      <c r="C12" s="21" t="s">
+      <c r="J13" s="26">
+        <v>28.7041</v>
+      </c>
+      <c r="K13" s="26">
+        <v>77.102500000000006</v>
+      </c>
+      <c r="L13" s="26">
+        <v>3</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="65"/>
+      <c r="C14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <f>J$12-0.5</f>
+        <v>12.4716</v>
+      </c>
+      <c r="E14" s="11">
+        <f>K$12-0.5</f>
+        <v>77.0946</v>
+      </c>
+      <c r="F14" s="26">
+        <v>5</v>
+      </c>
+      <c r="G14" s="21">
         <v>2</v>
       </c>
-      <c r="D12" s="14">
-        <f>I$11-0.5</f>
-        <v>18.576000000000001</v>
-      </c>
-      <c r="E12" s="14">
-        <f>J$11-0.5</f>
-        <v>71.587699999999998</v>
-      </c>
-      <c r="F12" s="33">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13">
-        <v>2</v>
-      </c>
-      <c r="I12" s="65">
-        <v>12.9716</v>
-      </c>
-      <c r="J12" s="65">
-        <v>77.5946</v>
-      </c>
-      <c r="K12" s="65">
-        <v>5</v>
-      </c>
-      <c r="L12" s="53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="35"/>
-      <c r="C13" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="14">
-        <f>I$12+0.5</f>
-        <v>13.4716</v>
-      </c>
-      <c r="E13" s="14">
-        <f>J$12+0.5</f>
-        <v>78.0946</v>
-      </c>
-      <c r="F13" s="33">
-        <v>2</v>
-      </c>
-      <c r="H13" s="13">
-        <v>3</v>
-      </c>
-      <c r="I13" s="65">
-        <v>28.7041</v>
-      </c>
-      <c r="J13" s="65">
-        <v>77.102500000000006</v>
-      </c>
-      <c r="K13" s="65">
-        <v>3</v>
-      </c>
-      <c r="L13" s="53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="35"/>
-      <c r="C14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="14">
-        <f>I$12-0.5</f>
-        <v>12.4716</v>
-      </c>
-      <c r="E14" s="14">
-        <f>J$12-0.5</f>
-        <v>77.0946</v>
-      </c>
-      <c r="F14" s="33">
-        <v>2</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
-    </row>
-    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
-      <c r="H15" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="56"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11"/>
+      <c r="C15" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="I15" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="35"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="54"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
+      <c r="D17" s="23"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="K18" s="54"/>
+      <c r="K18" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="E6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2544,238 +2920,253 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N20"/>
+  <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="7.875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="9" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="24.875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="9" customWidth="1"/>
-    <col min="14" max="14" width="10.125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="9" customWidth="1"/>
-    <col min="16" max="16384" width="9.75" style="9"/>
+    <col min="1" max="1" width="5.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="8.25" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="6" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="6" customWidth="1"/>
+    <col min="14" max="14" width="13" style="6" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="6" customWidth="1"/>
+    <col min="16" max="16384" width="9.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="85"/>
-    </row>
-    <row r="3" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="D3" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="60"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="88"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="89"/>
-    </row>
-    <row r="4" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="74"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="H4" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="93"/>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="74"/>
-    </row>
-    <row r="6" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="74"/>
-    </row>
-    <row r="7" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="74"/>
-      <c r="D7" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="74"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="74"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="74"/>
-      <c r="D10" s="36" t="s">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+    </row>
+    <row r="3" spans="2:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="40"/>
+      <c r="D3" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
+      <c r="H3" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="85"/>
+      <c r="O3" s="76"/>
+    </row>
+    <row r="4" spans="2:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="40"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74"/>
+      <c r="H4" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="79"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="80"/>
+    </row>
+    <row r="5" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="40"/>
+    </row>
+    <row r="6" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="40"/>
+    </row>
+    <row r="7" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="40"/>
+      <c r="D7" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="40"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="58"/>
+      <c r="J8" s="11"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="40"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="40"/>
+      <c r="D10" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="58" t="s">
+      <c r="E10" s="46"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="14"/>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="74"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="75"/>
-      <c r="G12" s="36" t="s">
+      <c r="I10" s="86"/>
+      <c r="J10" s="77"/>
+      <c r="L10" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="77"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="40"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="41"/>
+      <c r="G12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="38"/>
-    </row>
-    <row r="13" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="70"/>
-      <c r="J15" s="71"/>
-      <c r="L15" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="M15" s="72"/>
-    </row>
-    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="77"/>
-      <c r="H16" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="38"/>
-      <c r="L16" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="M16" s="38"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="46"/>
+    </row>
+    <row r="13" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
+      <c r="L15" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="48"/>
+    </row>
+    <row r="16" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="37"/>
+      <c r="G16" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="46"/>
+      <c r="L16" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="46"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="77"/>
+      <c r="B17" s="37"/>
     </row>
     <row r="18" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="77"/>
-      <c r="L18" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="M18" s="67"/>
-      <c r="N18" s="60"/>
+      <c r="B18" s="37"/>
+      <c r="L18" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
     </row>
     <row r="19" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="78"/>
-      <c r="L19" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="M19" s="37"/>
-      <c r="N19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="L19" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="45"/>
+      <c r="N19" s="46"/>
     </row>
     <row r="20" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="D3:F4"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="D7:E9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B2:B12"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="D7:E9"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2786,135 +3177,157 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C16"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67" style="18" customWidth="1"/>
-    <col min="3" max="3" width="37.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="9"/>
-    <col min="5" max="5" width="12.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="9"/>
-    <col min="7" max="7" width="39.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="9"/>
-    <col min="9" max="9" width="25.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="9"/>
+    <col min="1" max="1" width="11" style="6"/>
+    <col min="2" max="2" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="11" style="6"/>
+    <col min="6" max="6" width="12.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="6"/>
+    <col min="8" max="8" width="39.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="6"/>
+    <col min="10" max="10" width="25.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="26"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>0</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="102" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="103"/>
+    </row>
+    <row r="6" spans="2:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="103"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="78">
         <v>1</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="D8" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="78">
         <v>2</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="D9" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="104"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="95" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="C10" s="78">
+        <v>3</v>
+      </c>
+      <c r="D10" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="104"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="78">
         <v>4</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="D11" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="104"/>
+    </row>
+    <row r="12" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="97">
         <v>5</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>6</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="D12" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="106"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2924,171 +3337,127 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:P15"/>
+  <dimension ref="B3:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="K3" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-    </row>
-    <row r="5" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="F6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="K6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="O6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="3" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="L4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="P4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="L5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="P5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D7" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="60"/>
+      <c r="N7" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="60"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D8" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="91"/>
+      <c r="N8" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="91"/>
+    </row>
+    <row r="9" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="62"/>
+      <c r="N9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="K7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="O7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="F8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="K8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="O8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="50"/>
-      <c r="M10" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="50"/>
-    </row>
-    <row r="11" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="52"/>
-      <c r="M11" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="52"/>
-    </row>
-    <row r="12" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="F13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="K13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="O13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="O9" s="62"/>
+    </row>
+    <row r="10" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="F11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="L11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="P11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="F14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="K14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="O14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="F15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="K15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="O15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P15" s="3"/>
+      <c r="G12" s="1"/>
+      <c r="L12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="P12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="N8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Design_db_sys.xlsx
+++ b/Design_db_sys.xlsx
@@ -361,7 +361,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
   <si>
     <t>XYZ789</t>
   </si>
@@ -717,9 +717,6 @@
     <t>0-a2</t>
   </si>
   <si>
-    <t>Corresponding DC values are auto-fetched &amp; stored from Ref API, on saving Installation Metadata</t>
-  </si>
-  <si>
     <t>0-b</t>
   </si>
   <si>
@@ -884,6 +881,15 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Corresponding Ref DC values are auto-fetched &amp; stored from Ref API, on saving Installation Metadata</t>
+  </si>
+  <si>
+    <t>Manual (currently)</t>
+  </si>
+  <si>
+    <t>Manual/scheduled</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1045,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1408,26 +1414,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1452,8 +1443,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1464,110 +1455,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1575,84 +1467,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1665,12 +1496,176 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2641,7 +2636,7 @@
   <dimension ref="B1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2702,17 +2697,17 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="64"/>
-      <c r="C10" s="66" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -2721,7 +2716,7 @@
       <c r="E10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="30" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="20" t="s">
@@ -2744,7 +2739,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="65"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="10" t="s">
         <v>3</v>
       </c>
@@ -2779,8 +2774,8 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="65"/>
-      <c r="C12" s="67" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="11">
@@ -2814,8 +2809,8 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="65"/>
-      <c r="C13" s="67" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="34" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="11">
@@ -2849,7 +2844,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="65"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="10" t="s">
         <v>0</v>
       </c>
@@ -2875,20 +2870,20 @@
     </row>
     <row r="15" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="I15" s="33" t="s">
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="I15" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="35"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="54"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G16" s="11"/>
@@ -2948,74 +2943,74 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="27"/>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="59"/>
     </row>
     <row r="3" spans="2:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="40"/>
-      <c r="D3" s="69" t="s">
+      <c r="B3" s="93"/>
+      <c r="D3" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="H3" s="81" t="s">
+      <c r="E3" s="65"/>
+      <c r="F3" s="66"/>
+      <c r="H3" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="82" t="s">
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="85"/>
-      <c r="O3" s="76"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="36"/>
     </row>
     <row r="4" spans="2:15" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="40"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="H4" s="87" t="s">
+      <c r="B4" s="93"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="H4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="79" t="s">
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="80"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="78"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="40"/>
+      <c r="B5" s="93"/>
     </row>
     <row r="6" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
+      <c r="B6" s="93"/>
     </row>
     <row r="7" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="40"/>
-      <c r="D7" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="52"/>
+      <c r="B7" s="93"/>
+      <c r="D7" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="82"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -3026,21 +3021,21 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="40"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
+      <c r="B8" s="93"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="84"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="58"/>
+      <c r="I8" s="87"/>
       <c r="J8" s="11"/>
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
+      <c r="B9" s="93"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="86"/>
       <c r="G9" s="10"/>
       <c r="H9" s="28"/>
       <c r="I9" s="24"/>
@@ -3051,25 +3046,25 @@
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="40"/>
-      <c r="D10" s="44" t="s">
+      <c r="B10" s="93"/>
+      <c r="D10" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="46"/>
+      <c r="E10" s="59"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="86"/>
-      <c r="J10" s="77"/>
-      <c r="L10" s="57" t="s">
+      <c r="I10" s="80"/>
+      <c r="J10" s="81"/>
+      <c r="L10" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="77"/>
+      <c r="M10" s="81"/>
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="40"/>
+      <c r="B11" s="93"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -3080,70 +3075,77 @@
       <c r="N11" s="12"/>
     </row>
     <row r="12" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="41"/>
-      <c r="G12" s="44" t="s">
+      <c r="B12" s="94"/>
+      <c r="G12" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="46"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="59"/>
     </row>
     <row r="13" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
-      <c r="L15" s="47" t="s">
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="62"/>
+      <c r="L15" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="48"/>
+      <c r="M15" s="98"/>
     </row>
     <row r="16" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="37"/>
-      <c r="G16" s="44" t="s">
+      <c r="B16" s="90"/>
+      <c r="G16" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="46"/>
-      <c r="L16" s="44" t="s">
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="59"/>
+      <c r="L16" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="46"/>
+      <c r="M16" s="59"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="37"/>
+      <c r="B17" s="90"/>
     </row>
     <row r="18" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="37"/>
-      <c r="L18" s="69" t="s">
+      <c r="B18" s="90"/>
+      <c r="L18" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="M18" s="42"/>
-      <c r="N18" s="43"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="96"/>
     </row>
     <row r="19" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
-      <c r="L19" s="44" t="s">
+      <c r="B19" s="91"/>
+      <c r="L19" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="45"/>
-      <c r="N19" s="46"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="59"/>
     </row>
     <row r="20" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="G16:J16"/>
@@ -3160,13 +3162,6 @@
     <mergeCell ref="D7:E9"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="L10:M10"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3180,16 +3175,16 @@
   <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="6"/>
     <col min="2" max="2" width="12.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="85.625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="11" style="6"/>
+    <col min="5" max="5" width="15.5" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="6"/>
     <col min="8" max="8" width="39.625" style="6" bestFit="1" customWidth="1"/>
@@ -3201,133 +3196,137 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="98" t="s">
+    <row r="3" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="102" t="s">
+    </row>
+    <row r="5" spans="2:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="105" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="94" t="s">
+      <c r="E5" s="49"/>
+    </row>
+    <row r="6" spans="2:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="106" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="37">
+        <v>1</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="37">
+        <v>2</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="50"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="37">
+        <v>3</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="50"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="37">
+        <v>4</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="50"/>
+    </row>
+    <row r="12" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="43">
+        <v>5</v>
+      </c>
+      <c r="D12" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="103" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="94" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="103"/>
-    </row>
-    <row r="6" spans="2:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="103" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="103"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="78">
-        <v>1</v>
-      </c>
-      <c r="D8" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="103" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="78">
-        <v>2</v>
-      </c>
-      <c r="D9" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="104"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="78">
-        <v>3</v>
-      </c>
-      <c r="D10" s="94" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="104"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="78">
-        <v>4</v>
-      </c>
-      <c r="D11" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="104"/>
-    </row>
-    <row r="12" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="97">
-        <v>5</v>
-      </c>
-      <c r="D12" s="105" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="106"/>
+      <c r="E12" s="106" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3374,44 +3373,44 @@
       </c>
       <c r="G5" s="1"/>
       <c r="L5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M5" s="1"/>
       <c r="P5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="N7" s="59" t="s">
+      <c r="E7" s="100"/>
+      <c r="N7" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="60"/>
+      <c r="O7" s="100"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D8" s="90" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="91"/>
-      <c r="N8" s="90" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" s="91"/>
+      <c r="D8" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="104"/>
+      <c r="N8" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="104"/>
     </row>
     <row r="9" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="N9" s="61" t="s">
+      <c r="E9" s="102"/>
+      <c r="N9" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="62"/>
+      <c r="O9" s="102"/>
     </row>
     <row r="10" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
@@ -3442,11 +3441,11 @@
       </c>
       <c r="G12" s="1"/>
       <c r="L12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M12" s="1"/>
       <c r="P12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q12" s="1"/>
     </row>
